--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>114.380483</v>
+        <v>69.42974966666667</v>
       </c>
       <c r="H2">
-        <v>343.141449</v>
+        <v>208.289249</v>
       </c>
       <c r="I2">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="J2">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N2">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O2">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P2">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q2">
-        <v>15944.02514513312</v>
+        <v>7073.387249220305</v>
       </c>
       <c r="R2">
-        <v>143496.226306198</v>
+        <v>63660.48524298274</v>
       </c>
       <c r="S2">
-        <v>0.6019099348993785</v>
+        <v>0.6179251943911135</v>
       </c>
       <c r="T2">
-        <v>0.6019099348993784</v>
+        <v>0.6179251943911136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>114.380483</v>
+        <v>69.42974966666667</v>
       </c>
       <c r="H3">
-        <v>343.141449</v>
+        <v>208.289249</v>
       </c>
       <c r="I3">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="J3">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N3">
         <v>0.150717</v>
       </c>
       <c r="O3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q3">
-        <v>5.746361085437001</v>
+        <v>3.488081193503667</v>
       </c>
       <c r="R3">
-        <v>51.71724976893301</v>
+        <v>31.392730741533</v>
       </c>
       <c r="S3">
-        <v>0.0002169334152047231</v>
+        <v>0.0003047158558702305</v>
       </c>
       <c r="T3">
-        <v>0.000216933415204723</v>
+        <v>0.0003047158558702305</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>114.380483</v>
+        <v>69.42974966666667</v>
       </c>
       <c r="H4">
-        <v>343.141449</v>
+        <v>208.289249</v>
       </c>
       <c r="I4">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="J4">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N4">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q4">
-        <v>482.7656664712724</v>
+        <v>239.1321655539227</v>
       </c>
       <c r="R4">
-        <v>4344.890998241451</v>
+        <v>2152.189489985304</v>
       </c>
       <c r="S4">
-        <v>0.01822509988740692</v>
+        <v>0.02089038598888584</v>
       </c>
       <c r="T4">
-        <v>0.01822509988740691</v>
+        <v>0.02089038598888584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>114.380483</v>
+        <v>69.42974966666667</v>
       </c>
       <c r="H5">
-        <v>343.141449</v>
+        <v>208.289249</v>
       </c>
       <c r="I5">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="J5">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N5">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O5">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P5">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q5">
-        <v>90.96458677389535</v>
+        <v>4.908243579685444</v>
       </c>
       <c r="R5">
-        <v>818.6812809650581</v>
+        <v>44.17419221716901</v>
       </c>
       <c r="S5">
-        <v>0.003434044289621389</v>
+        <v>0.0004287800541996878</v>
       </c>
       <c r="T5">
-        <v>0.003434044289621388</v>
+        <v>0.0004287800541996879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>114.380483</v>
+        <v>69.42974966666667</v>
       </c>
       <c r="H6">
-        <v>343.141449</v>
+        <v>208.289249</v>
       </c>
       <c r="I6">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="J6">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N6">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O6">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P6">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q6">
-        <v>94.68687083216435</v>
+        <v>97.38309261246222</v>
       </c>
       <c r="R6">
-        <v>852.181837489479</v>
+        <v>876.4478335121601</v>
       </c>
       <c r="S6">
-        <v>0.003574565879044094</v>
+        <v>0.0085073055260189</v>
       </c>
       <c r="T6">
-        <v>0.003574565879044093</v>
+        <v>0.008507305526018902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>114.380483</v>
+        <v>69.42974966666667</v>
       </c>
       <c r="H7">
-        <v>343.141449</v>
+        <v>208.289249</v>
       </c>
       <c r="I7">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="J7">
-        <v>0.6536977130169467</v>
+        <v>0.6762611189535584</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N7">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q7">
-        <v>697.6457983226691</v>
+        <v>322.8595141396964</v>
       </c>
       <c r="R7">
-        <v>6278.812184904022</v>
+        <v>2905.735627257267</v>
       </c>
       <c r="S7">
-        <v>0.02633713464629115</v>
+        <v>0.02820473713747023</v>
       </c>
       <c r="T7">
-        <v>0.02633713464629114</v>
+        <v>0.02820473713747023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>47.125702</v>
       </c>
       <c r="I8">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="J8">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N8">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O8">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P8">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q8">
-        <v>2189.689936496276</v>
+        <v>1600.362674683012</v>
       </c>
       <c r="R8">
-        <v>19707.20942846648</v>
+        <v>14403.26407214711</v>
       </c>
       <c r="S8">
-        <v>0.08266395186466531</v>
+        <v>0.1398063448256405</v>
       </c>
       <c r="T8">
-        <v>0.0826639518646653</v>
+        <v>0.1398063448256405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>47.125702</v>
       </c>
       <c r="I9">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="J9">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,16 +995,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N9">
         <v>0.150717</v>
       </c>
       <c r="O9">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P9">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q9">
         <v>0.7891827142593334</v>
@@ -1013,10 +1013,10 @@
         <v>7.102644428334</v>
       </c>
       <c r="S9">
-        <v>2.979278518690421E-05</v>
+        <v>6.894234189886312E-05</v>
       </c>
       <c r="T9">
-        <v>2.979278518690421E-05</v>
+        <v>6.894234189886312E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>47.125702</v>
       </c>
       <c r="I10">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="J10">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N10">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O10">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P10">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q10">
-        <v>66.30114490761089</v>
+        <v>54.10395028362134</v>
       </c>
       <c r="R10">
-        <v>596.7103041684979</v>
+        <v>486.9355525525921</v>
       </c>
       <c r="S10">
-        <v>0.002502963803169613</v>
+        <v>0.004726475847907106</v>
       </c>
       <c r="T10">
-        <v>0.002502963803169612</v>
+        <v>0.004726475847907107</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>47.125702</v>
       </c>
       <c r="I11">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="J11">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N11">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O11">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P11">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q11">
-        <v>12.49271990123156</v>
+        <v>1.110496222873556</v>
       </c>
       <c r="R11">
-        <v>112.434479111084</v>
+        <v>9.994466005862002</v>
       </c>
       <c r="S11">
-        <v>0.0004716181863750865</v>
+        <v>9.701202128660198E-05</v>
       </c>
       <c r="T11">
-        <v>0.0004716181863750864</v>
+        <v>9.7012021286602E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>47.125702</v>
       </c>
       <c r="I12">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="J12">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N12">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O12">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P12">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q12">
-        <v>13.00392380796022</v>
+        <v>22.03304598929778</v>
       </c>
       <c r="R12">
-        <v>117.035314271642</v>
+        <v>198.29741390368</v>
       </c>
       <c r="S12">
-        <v>0.0004909168708301398</v>
+        <v>0.001924788470681557</v>
       </c>
       <c r="T12">
-        <v>0.0004909168708301396</v>
+        <v>0.001924788470681557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>47.125702</v>
       </c>
       <c r="I13">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="J13">
-        <v>0.08977628238003432</v>
+        <v>0.1530049204123442</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N13">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O13">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P13">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q13">
-        <v>95.81194020459533</v>
+        <v>73.04736717934068</v>
       </c>
       <c r="R13">
-        <v>862.307461841358</v>
+        <v>657.4263046140661</v>
       </c>
       <c r="S13">
-        <v>0.003617038869807279</v>
+        <v>0.006381356904929622</v>
       </c>
       <c r="T13">
-        <v>0.003617038869807278</v>
+        <v>0.006381356904929622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.73445933333333</v>
+        <v>17.31398133333333</v>
       </c>
       <c r="H14">
-        <v>134.203378</v>
+        <v>51.941944</v>
       </c>
       <c r="I14">
-        <v>0.2556626182392462</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="J14">
-        <v>0.2556626182392463</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N14">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O14">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P14">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q14">
-        <v>6235.743421931531</v>
+        <v>1763.919578918426</v>
       </c>
       <c r="R14">
-        <v>56121.69079738379</v>
+        <v>15875.27621026583</v>
       </c>
       <c r="S14">
-        <v>0.2354083039244164</v>
+        <v>0.154094539191758</v>
       </c>
       <c r="T14">
-        <v>0.2354083039244165</v>
+        <v>0.154094539191758</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.73445933333333</v>
+        <v>17.31398133333333</v>
       </c>
       <c r="H15">
-        <v>134.203378</v>
+        <v>51.941944</v>
       </c>
       <c r="I15">
-        <v>0.2556626182392462</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="J15">
-        <v>0.2556626182392463</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N15">
         <v>0.150717</v>
       </c>
       <c r="O15">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P15">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q15">
-        <v>2.247414502447333</v>
+        <v>0.8698371082053333</v>
       </c>
       <c r="R15">
-        <v>20.226730522026</v>
+        <v>7.828533973848</v>
       </c>
       <c r="S15">
-        <v>8.484313744781787E-05</v>
+        <v>7.598824230012748E-05</v>
       </c>
       <c r="T15">
-        <v>8.484313744781787E-05</v>
+        <v>7.598824230012748E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.73445933333333</v>
+        <v>17.31398133333333</v>
       </c>
       <c r="H16">
-        <v>134.203378</v>
+        <v>51.941944</v>
       </c>
       <c r="I16">
-        <v>0.2556626182392462</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="J16">
-        <v>0.2556626182392463</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N16">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O16">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P16">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q16">
-        <v>188.8107175967135</v>
+        <v>59.63336855566934</v>
       </c>
       <c r="R16">
-        <v>1699.296458370422</v>
+        <v>536.700317001024</v>
       </c>
       <c r="S16">
-        <v>0.007127876787853242</v>
+        <v>0.005209521203723255</v>
       </c>
       <c r="T16">
-        <v>0.007127876787853243</v>
+        <v>0.005209521203723256</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>44.73445933333333</v>
+        <v>17.31398133333333</v>
       </c>
       <c r="H17">
-        <v>134.203378</v>
+        <v>51.941944</v>
       </c>
       <c r="I17">
-        <v>0.2556626182392462</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="J17">
-        <v>0.2556626182392463</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N17">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O17">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P17">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q17">
-        <v>35.57645064158622</v>
+        <v>1.223988825051556</v>
       </c>
       <c r="R17">
-        <v>320.188055774276</v>
+        <v>11.015899425464</v>
       </c>
       <c r="S17">
-        <v>0.001343062300435761</v>
+        <v>0.0001069266400953664</v>
       </c>
       <c r="T17">
-        <v>0.001343062300435762</v>
+        <v>0.0001069266400953664</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>44.73445933333333</v>
+        <v>17.31398133333333</v>
       </c>
       <c r="H18">
-        <v>134.203378</v>
+        <v>51.941944</v>
       </c>
       <c r="I18">
-        <v>0.2556626182392462</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="J18">
-        <v>0.2556626182392463</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N18">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O18">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P18">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q18">
-        <v>37.03224415167088</v>
+        <v>24.28482107121778</v>
       </c>
       <c r="R18">
-        <v>333.290197365038</v>
+        <v>218.56338964096</v>
       </c>
       <c r="S18">
-        <v>0.001398020604183136</v>
+        <v>0.002121501658606318</v>
       </c>
       <c r="T18">
-        <v>0.001398020604183136</v>
+        <v>0.002121501658606318</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>44.73445933333333</v>
+        <v>17.31398133333333</v>
       </c>
       <c r="H19">
-        <v>134.203378</v>
+        <v>51.941944</v>
       </c>
       <c r="I19">
-        <v>0.2556626182392462</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="J19">
-        <v>0.2556626182392463</v>
+        <v>0.1686420078746507</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N19">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O19">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P19">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q19">
-        <v>272.8508113935513</v>
+        <v>80.51280075099469</v>
       </c>
       <c r="R19">
-        <v>2455.657302541962</v>
+        <v>724.6152067589521</v>
       </c>
       <c r="S19">
-        <v>0.01030051148490984</v>
+        <v>0.007033530938167621</v>
       </c>
       <c r="T19">
-        <v>0.01030051148490985</v>
+        <v>0.007033530938167621</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1510706666666667</v>
+        <v>0.2147746666666667</v>
       </c>
       <c r="H20">
-        <v>0.453212</v>
+        <v>0.644324</v>
       </c>
       <c r="I20">
-        <v>0.0008633863637727903</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="J20">
-        <v>0.0008633863637727905</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N20">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O20">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P20">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q20">
-        <v>21.05843973421022</v>
+        <v>21.88088529699689</v>
       </c>
       <c r="R20">
-        <v>189.525957607892</v>
+        <v>196.927967672972</v>
       </c>
       <c r="S20">
-        <v>0.0007949864588221665</v>
+        <v>0.001911495839859021</v>
       </c>
       <c r="T20">
-        <v>0.0007949864588221666</v>
+        <v>0.001911495839859021</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1510706666666667</v>
+        <v>0.2147746666666667</v>
       </c>
       <c r="H21">
-        <v>0.453212</v>
+        <v>0.644324</v>
       </c>
       <c r="I21">
-        <v>0.0008633863637727903</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="J21">
-        <v>0.0008633863637727905</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N21">
         <v>0.150717</v>
       </c>
       <c r="O21">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P21">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q21">
-        <v>0.007589639222666667</v>
+        <v>0.01079006447866667</v>
       </c>
       <c r="R21">
-        <v>0.06830675300400001</v>
+        <v>0.09711058030799999</v>
       </c>
       <c r="S21">
-        <v>2.865198222432258E-07</v>
+        <v>9.426110087790964E-07</v>
       </c>
       <c r="T21">
-        <v>2.865198222432258E-07</v>
+        <v>9.426110087790964E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1510706666666667</v>
+        <v>0.2147746666666667</v>
       </c>
       <c r="H22">
-        <v>0.453212</v>
+        <v>0.644324</v>
       </c>
       <c r="I22">
-        <v>0.0008633863637727903</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="J22">
-        <v>0.0008633863637727905</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N22">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O22">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P22">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q22">
-        <v>0.637623912443111</v>
+        <v>0.7397337797226666</v>
       </c>
       <c r="R22">
-        <v>5.738615211988</v>
+        <v>6.657604017504</v>
       </c>
       <c r="S22">
-        <v>2.407122192391121E-05</v>
+        <v>6.462252433347089E-05</v>
       </c>
       <c r="T22">
-        <v>2.407122192391121E-05</v>
+        <v>6.462252433347089E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1510706666666667</v>
+        <v>0.2147746666666667</v>
       </c>
       <c r="H23">
-        <v>0.453212</v>
+        <v>0.644324</v>
       </c>
       <c r="I23">
-        <v>0.0008633863637727903</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="J23">
-        <v>0.0008633863637727905</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N23">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O23">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P23">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q23">
-        <v>0.1201435805004444</v>
+        <v>0.01518320869377778</v>
       </c>
       <c r="R23">
-        <v>1.081292224504</v>
+        <v>0.136648878244</v>
       </c>
       <c r="S23">
-        <v>4.535593368634077E-06</v>
+        <v>1.326392413283701E-06</v>
       </c>
       <c r="T23">
-        <v>4.535593368634078E-06</v>
+        <v>1.326392413283701E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1510706666666667</v>
+        <v>0.2147746666666667</v>
       </c>
       <c r="H24">
-        <v>0.453212</v>
+        <v>0.644324</v>
       </c>
       <c r="I24">
-        <v>0.0008633863637727903</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="J24">
-        <v>0.0008633863637727905</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N24">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O24">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P24">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q24">
-        <v>0.1250598732057778</v>
+        <v>0.3012458111288889</v>
       </c>
       <c r="R24">
-        <v>1.125538858852</v>
+        <v>2.71121230016</v>
       </c>
       <c r="S24">
-        <v>4.721190505823537E-06</v>
+        <v>2.631658211867959E-05</v>
       </c>
       <c r="T24">
-        <v>4.721190505823537E-06</v>
+        <v>2.631658211867959E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1510706666666667</v>
+        <v>0.2147746666666667</v>
       </c>
       <c r="H25">
-        <v>0.453212</v>
+        <v>0.644324</v>
       </c>
       <c r="I25">
-        <v>0.0008633863637727903</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="J25">
-        <v>0.0008633863637727905</v>
+        <v>0.002091952759446708</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N25">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O25">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P25">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q25">
-        <v>0.9214318132386666</v>
+        <v>0.9987367787213335</v>
       </c>
       <c r="R25">
-        <v>8.292886319148</v>
+        <v>8.988631008492002</v>
       </c>
       <c r="S25">
-        <v>3.478537933001181E-05</v>
+        <v>8.724880971347383E-05</v>
       </c>
       <c r="T25">
-        <v>3.478537933001181E-05</v>
+        <v>8.724880971347383E-05</v>
       </c>
     </row>
   </sheetData>
